--- a/ISMA.xlsx
+++ b/ISMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baglass-my.sharepoint.com/personal/ines_meira_baglass_com/Documents/Ambiente de Trabalho/Dashboard/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="11_3BFE6A97F09A23E1E9FD32F27A01067E8AC80DF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8D49C9-4C52-4AC8-8531-ABA7E55B652D}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="11_3BFE6A97F09A23E1E9FD32F27A01067E8AC80DF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0590A3B-7BF0-46A0-98E3-5FD27566B13D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="445" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="445" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation" sheetId="2" r:id="rId1"/>
@@ -601,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -700,9 +700,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8245,8 +8242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8257,7 +8254,7 @@
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
@@ -15014,7 +15011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -15062,7 +15059,7 @@
       <c r="K1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
     </row>

--- a/ISMA.xlsx
+++ b/ISMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baglass-my.sharepoint.com/personal/ines_meira_baglass_com/Documents/Ambiente de Trabalho/Dashboard/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="11_3BFE6A97F09A23E1E9FD32F27A01067E8AC80DF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0590A3B-7BF0-46A0-98E3-5FD27566B13D}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="11_3BFE6A97F09A23E1E9FD32F27A01067E8AC80DF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9AA190D-B006-4D73-A7F2-BA4B188E54AD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="445" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correlation" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="98">
   <si>
     <t>Harvest Period</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Tunisia</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -8243,7 +8246,7 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8850,8 +8853,8 @@
       <c r="J14" s="1">
         <v>336.48511875000003</v>
       </c>
-      <c r="K14">
-        <v>795.25</v>
+      <c r="K14" t="s">
+        <v>97</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>

--- a/ISMA.xlsx
+++ b/ISMA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baglass-my.sharepoint.com/personal/ines_meira_baglass_com/Documents/Ambiente de Trabalho/Dashboard/Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="11_3BFE6A97F09A23E1E9FD32F27A01067E8AC80DF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9AA190D-B006-4D73-A7F2-BA4B188E54AD}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="11_3BFE6A97F09A23E1E9FD32F27A01067E8AC80DF2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4174850-663D-44EF-8D9C-3C9853309CF7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Correlation" sheetId="2" r:id="rId1"/>
-    <sheet name="Standardization" sheetId="3" r:id="rId2"/>
-    <sheet name="SubIndices" sheetId="4" r:id="rId3"/>
-    <sheet name="Data4" sheetId="1" r:id="rId4"/>
+    <sheet name="Data4" sheetId="1" r:id="rId1"/>
+    <sheet name="Correlation" sheetId="2" r:id="rId2"/>
+    <sheet name="Standardization" sheetId="3" r:id="rId3"/>
+    <sheet name="SubIndices" sheetId="4" r:id="rId4"/>
     <sheet name="ISMA_PCA" sheetId="5" r:id="rId5"/>
     <sheet name="PCA" sheetId="6" r:id="rId6"/>
     <sheet name="ISMA_FINAL" sheetId="7" r:id="rId7"/>
@@ -2241,57 +2241,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:D29" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
-  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Consumption" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Min" dataDxfId="76">
-      <calculatedColumnFormula>MIN(Table2[Consumption])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Max" dataDxfId="75">
-      <calculatedColumnFormula>MAX(Table2[Consumption])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Consumption_N" dataDxfId="74">
-      <calculatedColumnFormula>(Table2[[#This Row],[Consumption]]-Table2[[#This Row],[Min]])/(Table2[[#This Row],[Max]]-Table2[[#This Row],[Min]])</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table12" displayName="Table12" ref="C1:F29" totalsRowShown="0">
-  <autoFilter ref="C1:F29" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Offer" dataDxfId="12">
-      <calculatedColumnFormula>(Table3[[#This Row],[Production_N]]+Table6[[#This Row],[OO_N]]+Table4[[#This Row],[Exportation_N]])/3</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Market" dataDxfId="11">
-      <calculatedColumnFormula>(Table2[[#This Row],[Consumption_N]]+Table5[[#This Row],[Importation_N_Inversion]])/2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Climate" dataDxfId="10">
-      <calculatedColumnFormula>Table11[[#This Row],[Precipitation_N]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Economic" dataDxfId="9">
-      <calculatedColumnFormula>(Table8[[#This Row],[PIB_N]]+Table9[[#This Row],[Inflation_N_Inversion]])/2</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table13" displayName="Table13" ref="A1:B29" totalsRowShown="0">
-  <autoFilter ref="A1:B29" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Harvest Period"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Country"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A1:K47" totalsRowShown="0">
   <autoFilter ref="A1:K47" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
@@ -2318,6 +2267,57 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Precipitation (mm)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table11" displayName="Table11" ref="AR1:AU29" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
+  <autoFilter ref="AR1:AU29" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Precipitation (mm)" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Min" dataDxfId="15">
+      <calculatedColumnFormula>MIN(Table11[Precipitation (mm)])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Max" dataDxfId="14">
+      <calculatedColumnFormula>MAX(Table11[Precipitation (mm)])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Precipitation_N" dataDxfId="13">
+      <calculatedColumnFormula>(Table11[[#This Row],[Precipitation (mm)]]-Table11[[#This Row],[Min]])/(Table11[[#This Row],[Max]]-Table11[[#This Row],[Min]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table12" displayName="Table12" ref="C1:F29" totalsRowShown="0">
+  <autoFilter ref="C1:F29" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Offer" dataDxfId="12">
+      <calculatedColumnFormula>(Table3[[#This Row],[Production_N]]+Table6[[#This Row],[OO_N]]+Table4[[#This Row],[Exportation_N]])/3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Market" dataDxfId="11">
+      <calculatedColumnFormula>(Table2[[#This Row],[Consumption_N]]+Table5[[#This Row],[Importation_N_Inversion]])/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Climate" dataDxfId="10">
+      <calculatedColumnFormula>Table11[[#This Row],[Precipitation_N]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Economic" dataDxfId="9">
+      <calculatedColumnFormula>(Table8[[#This Row],[PIB_N]]+Table9[[#This Row],[Inflation_N_Inversion]])/2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table13" displayName="Table13" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Harvest Period"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Country"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2366,6 +2366,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:D29" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
+  <autoFilter ref="A1:D29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Consumption" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Min" dataDxfId="76">
+      <calculatedColumnFormula>MIN(Table2[Consumption])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Max" dataDxfId="75">
+      <calculatedColumnFormula>MAX(Table2[Consumption])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Consumption_N" dataDxfId="74">
+      <calculatedColumnFormula>(Table2[[#This Row],[Consumption]]-Table2[[#This Row],[Min]])/(Table2[[#This Row],[Max]]-Table2[[#This Row],[Min]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="F1:I29" totalsRowShown="0" headerRowDxfId="73" dataDxfId="71" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="69">
   <autoFilter ref="F1:I29" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
@@ -2384,7 +2403,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="K1:N29" totalsRowShown="0" headerRowDxfId="64" dataDxfId="62" headerRowBorderDxfId="63">
   <autoFilter ref="K1:N29" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
@@ -2403,7 +2422,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="P1:T29" totalsRowShown="0" headerRowDxfId="57" dataDxfId="55" headerRowBorderDxfId="56">
   <autoFilter ref="P1:T29" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
@@ -2425,7 +2444,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="V1:Y29" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48">
   <autoFilter ref="V1:Y29" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="4">
@@ -2444,7 +2463,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="AA1:AD29" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" headerRowCellStyle="Percent" dataCellStyle="Percent">
   <autoFilter ref="AA1:AD29" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
@@ -2463,7 +2482,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table9" displayName="Table9" ref="AF1:AJ29" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" dataCellStyle="Percent">
   <autoFilter ref="AF1:AJ29" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="5">
@@ -2485,7 +2504,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table10" displayName="Table10" ref="AL1:AP29" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
   <autoFilter ref="AL1:AP29" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="5">
@@ -2501,25 +2520,6 @@
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Inversion" dataDxfId="20">
       <calculatedColumnFormula>1-Table10[[#This Row],[Inflation_N]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table11" displayName="Table11" ref="AR1:AU29" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
-  <autoFilter ref="AR1:AU29" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Precipitation (mm)" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Min" dataDxfId="15">
-      <calculatedColumnFormula>MIN(Table11[Precipitation (mm)])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Max" dataDxfId="14">
-      <calculatedColumnFormula>MAX(Table11[Precipitation (mm)])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Precipitation_N" dataDxfId="13">
-      <calculatedColumnFormula>(Table11[[#This Row],[Precipitation (mm)]]-Table11[[#This Row],[Min]])/(Table11[[#This Row],[Max]]-Table11[[#This Row],[Min]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2788,6 +2788,1830 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <f>525.7*1000</f>
+        <v>525700</v>
+      </c>
+      <c r="D2">
+        <f>1789.9*1000</f>
+        <v>1789900</v>
+      </c>
+      <c r="E2">
+        <f>355.8*1000</f>
+        <v>355800</v>
+      </c>
+      <c r="F2">
+        <f>84*1000</f>
+        <v>84000</v>
+      </c>
+      <c r="G2">
+        <f>591.1*1000</f>
+        <v>591100</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>245.30077198866351</v>
+      </c>
+      <c r="K2">
+        <v>828.26</v>
+      </c>
+      <c r="O2" s="66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <f>518.6*1000</f>
+        <v>518600</v>
+      </c>
+      <c r="D3">
+        <f>1125.3*1000</f>
+        <v>1125300</v>
+      </c>
+      <c r="E3">
+        <f>420.7*1000</f>
+        <v>420700</v>
+      </c>
+      <c r="F3">
+        <f>151.9*1000</f>
+        <v>151900</v>
+      </c>
+      <c r="G3" s="22">
+        <f>458.2*1000</f>
+        <v>458200</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>184.9668501610679</v>
+      </c>
+      <c r="K3">
+        <v>620.44000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <f>541.1*1000</f>
+        <v>541100</v>
+      </c>
+      <c r="D4">
+        <f>1389*1000</f>
+        <v>1389000</v>
+      </c>
+      <c r="E4">
+        <f>464.6*1000</f>
+        <v>464600</v>
+      </c>
+      <c r="F4">
+        <f>100.7*1000</f>
+        <v>100700</v>
+      </c>
+      <c r="G4">
+        <f>546.3*1000</f>
+        <v>546300</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>164.12043561896019</v>
+      </c>
+      <c r="K4">
+        <v>675.41</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <f>579.9*1000</f>
+        <v>579900</v>
+      </c>
+      <c r="D5">
+        <f>1493*1000</f>
+        <v>1493000</v>
+      </c>
+      <c r="E5">
+        <f>468.1*1000</f>
+        <v>468100</v>
+      </c>
+      <c r="F5">
+        <f>85.6*1000</f>
+        <v>85600</v>
+      </c>
+      <c r="G5">
+        <f>659.3*1000</f>
+        <v>659300</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I5" s="13">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>253.75594594594571</v>
+      </c>
+      <c r="K5">
+        <v>661.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <f>363.2*1000</f>
+        <v>363200</v>
+      </c>
+      <c r="D6">
+        <f>665.8*1000</f>
+        <v>665800</v>
+      </c>
+      <c r="E6">
+        <f>316.5*1000</f>
+        <v>316500</v>
+      </c>
+      <c r="F6">
+        <f>97.8*1000</f>
+        <v>97800</v>
+      </c>
+      <c r="G6">
+        <f>414.1*1000</f>
+        <v>414100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>341.36704191616792</v>
+      </c>
+      <c r="K6">
+        <v>638.66</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <f>402.3*1000</f>
+        <v>402300</v>
+      </c>
+      <c r="D7">
+        <f>854*1000</f>
+        <v>854000</v>
+      </c>
+      <c r="E7">
+        <f>332.4*1000</f>
+        <v>332400</v>
+      </c>
+      <c r="F7">
+        <f>108.6*1000</f>
+        <v>108600</v>
+      </c>
+      <c r="G7">
+        <f>407.4*1000</f>
+        <v>407400</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I7" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>561.969357311321</v>
+      </c>
+      <c r="K7">
+        <v>582.9</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <f>460*1000</f>
+        <v>460000</v>
+      </c>
+      <c r="D8">
+        <f>1289.9*1000</f>
+        <v>1289900</v>
+      </c>
+      <c r="E8">
+        <f>415.5*1000</f>
+        <v>415500</v>
+      </c>
+      <c r="F8">
+        <f>92.8*1000</f>
+        <v>92800</v>
+      </c>
+      <c r="G8">
+        <f>468.3*1000</f>
+        <v>468300</v>
+      </c>
+      <c r="H8" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>630.10107572115385</v>
+      </c>
+      <c r="K8">
+        <v>705.35</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="5">
+        <v>341.55793632075472</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <f>54.4*1000</f>
+        <v>54400</v>
+      </c>
+      <c r="D10">
+        <f>100.3*1000</f>
+        <v>100300</v>
+      </c>
+      <c r="E10">
+        <f>64.9*1000</f>
+        <v>64900.000000000007</v>
+      </c>
+      <c r="F10">
+        <f>0.7*1000</f>
+        <v>700</v>
+      </c>
+      <c r="G10" s="22">
+        <f>22.5*1000</f>
+        <v>22500</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="J10" s="1">
+        <v>309.5344827586207</v>
+      </c>
+      <c r="K10">
+        <v>886.88</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <f>71.6*1000</f>
+        <v>71600</v>
+      </c>
+      <c r="D11">
+        <f>140.5*1000</f>
+        <v>140500</v>
+      </c>
+      <c r="E11">
+        <f>80.2*1000</f>
+        <v>80200</v>
+      </c>
+      <c r="F11">
+        <f>2.3*1000</f>
+        <v>2300</v>
+      </c>
+      <c r="G11" s="22">
+        <f>24.7*1000</f>
+        <v>24700</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I11" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>270.42567567567568</v>
+      </c>
+      <c r="K11">
+        <v>703.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <f>61.8*1000</f>
+        <v>61800</v>
+      </c>
+      <c r="D12">
+        <f>100*1000</f>
+        <v>100000</v>
+      </c>
+      <c r="E12">
+        <f>76.1*1000</f>
+        <v>76100</v>
+      </c>
+      <c r="F12">
+        <f>0.4*1000</f>
+        <v>400</v>
+      </c>
+      <c r="G12" s="22">
+        <f>15.6*1000</f>
+        <v>15600</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>239.93975903614461</v>
+      </c>
+      <c r="K12">
+        <v>710.88</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <f>59.3*1000</f>
+        <v>59300</v>
+      </c>
+      <c r="D13">
+        <f>206.2*1000</f>
+        <v>206200</v>
+      </c>
+      <c r="E13">
+        <f>72.7*1000</f>
+        <v>72700</v>
+      </c>
+      <c r="F13">
+        <f>0*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <f>25.5*1000</f>
+        <v>25500</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>294.60318015267171</v>
+      </c>
+      <c r="K13">
+        <v>734.05</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <f>39.1*1000</f>
+        <v>39100</v>
+      </c>
+      <c r="D14">
+        <f>126*1000</f>
+        <v>126000</v>
+      </c>
+      <c r="E14">
+        <f>59*1000</f>
+        <v>59000</v>
+      </c>
+      <c r="F14">
+        <f>2.3*1000</f>
+        <v>2300</v>
+      </c>
+      <c r="G14" s="22">
+        <f>16.9*1000</f>
+        <v>16900</v>
+      </c>
+      <c r="H14" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I14" s="13">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>336.48511875000003</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <f>60.9*1000</f>
+        <v>60900</v>
+      </c>
+      <c r="D15">
+        <f>160.9*1000</f>
+        <v>160900</v>
+      </c>
+      <c r="E15">
+        <f>55.1*1000</f>
+        <v>55100</v>
+      </c>
+      <c r="F15">
+        <f>11.5*1000</f>
+        <v>11500</v>
+      </c>
+      <c r="G15" s="22">
+        <f>19.7*1000</f>
+        <v>19700</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I15" s="12">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J15" s="1">
+        <v>589.73076794871793</v>
+      </c>
+      <c r="K15">
+        <v>721.1</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <f>72.4*1000</f>
+        <v>72400</v>
+      </c>
+      <c r="D16">
+        <f>195*1000</f>
+        <v>195000</v>
+      </c>
+      <c r="E16">
+        <f>60*1000</f>
+        <v>60000</v>
+      </c>
+      <c r="F16">
+        <f>13.7*1000</f>
+        <v>13700</v>
+      </c>
+      <c r="G16" s="22">
+        <f>21*1000</f>
+        <v>21000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I16" s="13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>840.98425196850394</v>
+      </c>
+      <c r="K16">
+        <v>774.13</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="5">
+        <v>587.40157480314963</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <f>120*100</f>
+        <v>12000</v>
+      </c>
+      <c r="D18">
+        <f>185*1000</f>
+        <v>185000</v>
+      </c>
+      <c r="E18">
+        <f>20.2*1000</f>
+        <v>20200</v>
+      </c>
+      <c r="F18">
+        <f>0*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="22">
+        <f>199*1000</f>
+        <v>199000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I18" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>269.25496932515341</v>
+      </c>
+      <c r="K18">
+        <v>913.35</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <f>114.3*1000</f>
+        <v>114300</v>
+      </c>
+      <c r="D19">
+        <f>275*1000</f>
+        <v>275000</v>
+      </c>
+      <c r="E19">
+        <f>20.8*1000</f>
+        <v>20800</v>
+      </c>
+      <c r="F19">
+        <f>0*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <f>222*1000</f>
+        <v>222000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J19" s="1">
+        <v>229.40700062695919</v>
+      </c>
+      <c r="K19">
+        <v>872.43</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <f>108.6*1000</f>
+        <v>108600</v>
+      </c>
+      <c r="D20">
+        <f>275*1000</f>
+        <v>275000</v>
+      </c>
+      <c r="E20">
+        <f>24.5*1000</f>
+        <v>24500</v>
+      </c>
+      <c r="F20">
+        <f>0.1*1000</f>
+        <v>100</v>
+      </c>
+      <c r="G20" s="22">
+        <f>230*1000</f>
+        <v>230000</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="I20" s="12">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>177.36952520593081</v>
+      </c>
+      <c r="K20">
+        <v>722.42</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <f>105.5*1000</f>
+        <v>105500</v>
+      </c>
+      <c r="D21">
+        <f>232*1000</f>
+        <v>232000</v>
+      </c>
+      <c r="E21">
+        <f>24.5*1000</f>
+        <v>24500</v>
+      </c>
+      <c r="F21">
+        <f>0*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="22">
+        <f>175*1000</f>
+        <v>175000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>260.57058951219523</v>
+      </c>
+      <c r="K21">
+        <v>900.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <f>96.5*1000</f>
+        <v>96500</v>
+      </c>
+      <c r="D22">
+        <f>345*1000</f>
+        <v>345000</v>
+      </c>
+      <c r="E22">
+        <f>23.3*1000</f>
+        <v>23300</v>
+      </c>
+      <c r="F22">
+        <f>0.2*1000</f>
+        <v>200</v>
+      </c>
+      <c r="G22" s="22">
+        <f>325*1000</f>
+        <v>325000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I22" s="12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>312.26561630218703</v>
+      </c>
+      <c r="K22">
+        <v>749.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <f>90.5*1000</f>
+        <v>90500</v>
+      </c>
+      <c r="D23">
+        <f>175*1000</f>
+        <v>175000</v>
+      </c>
+      <c r="E23">
+        <f>19.6*1000</f>
+        <v>19600</v>
+      </c>
+      <c r="F23">
+        <f>0.3*1000</f>
+        <v>300</v>
+      </c>
+      <c r="G23" s="22">
+        <f>110*1000</f>
+        <v>110000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I23" s="13">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>549.13660973236028</v>
+      </c>
+      <c r="K23">
+        <v>838.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <f>110*1000</f>
+        <v>110000</v>
+      </c>
+      <c r="D24">
+        <f>250*1000</f>
+        <v>250000</v>
+      </c>
+      <c r="E24">
+        <f>20*1000</f>
+        <v>20000</v>
+      </c>
+      <c r="F24">
+        <f>0*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="22">
+        <f>238.5*1000</f>
+        <v>238500</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="I24" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>652.32392783783769</v>
+      </c>
+      <c r="K24">
+        <v>705.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="5">
+        <v>387.3</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <f>417.3*1000</f>
+        <v>417300</v>
+      </c>
+      <c r="D26">
+        <f>173.6*1000</f>
+        <v>173600</v>
+      </c>
+      <c r="E26">
+        <f>197*1000</f>
+        <v>197000</v>
+      </c>
+      <c r="F26">
+        <f>48.6*1000</f>
+        <v>48600</v>
+      </c>
+      <c r="G26" s="22">
+        <f>40*1000</f>
+        <v>40000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>316.12</v>
+      </c>
+      <c r="K26">
+        <v>1212.48</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <f>407.6*1000</f>
+        <v>407600</v>
+      </c>
+      <c r="D27">
+        <f>366.5*1000</f>
+        <v>366500</v>
+      </c>
+      <c r="E27">
+        <f>80.2*1000</f>
+        <v>80200</v>
+      </c>
+      <c r="F27">
+        <f>81.8*1000</f>
+        <v>81800</v>
+      </c>
+      <c r="G27" s="22">
+        <f>60*1000</f>
+        <v>60000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I27" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>288.07849813863942</v>
+      </c>
+      <c r="K27">
+        <v>1170.8499999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <f>421.9*1000</f>
+        <v>421900</v>
+      </c>
+      <c r="D28">
+        <f>273.5*1000</f>
+        <v>273500</v>
+      </c>
+      <c r="E28">
+        <f>76.1*1000</f>
+        <v>76100</v>
+      </c>
+      <c r="F28">
+        <f>51.2*1000</f>
+        <v>51200</v>
+      </c>
+      <c r="G28" s="22">
+        <f>83*1000</f>
+        <v>83000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="I28" s="13">
+        <v>-1E-3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>226.22652930930951</v>
+      </c>
+      <c r="K28">
+        <v>981.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <f>457.1*1000</f>
+        <v>457100</v>
+      </c>
+      <c r="D29">
+        <f>329*1000</f>
+        <v>329000</v>
+      </c>
+      <c r="E29">
+        <f>72.7*1000</f>
+        <v>72700</v>
+      </c>
+      <c r="F29">
+        <f>51.5*1000</f>
+        <v>51500</v>
+      </c>
+      <c r="G29" s="22">
+        <f>62.5*1000</f>
+        <v>62500</v>
+      </c>
+      <c r="H29" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <v>305.30891238670688</v>
+      </c>
+      <c r="K29">
+        <v>990.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <f>433.8*1000</f>
+        <v>433800</v>
+      </c>
+      <c r="D30">
+        <f>240.9*1000</f>
+        <v>240900</v>
+      </c>
+      <c r="E30">
+        <f>59*1000</f>
+        <v>59000</v>
+      </c>
+      <c r="F30">
+        <f>64.6*1000</f>
+        <v>64599.999999999993</v>
+      </c>
+      <c r="G30" s="22">
+        <f>67.3*1000</f>
+        <v>67300</v>
+      </c>
+      <c r="H30" s="2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I30" s="13">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>362.26008230452669</v>
+      </c>
+      <c r="K30">
+        <v>818.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <f>411.5*1000</f>
+        <v>411500</v>
+      </c>
+      <c r="D31">
+        <f>328.5*1000</f>
+        <v>328500</v>
+      </c>
+      <c r="E31">
+        <f>55.1*1000</f>
+        <v>55100</v>
+      </c>
+      <c r="F31">
+        <f>68.6*1000</f>
+        <v>68600</v>
+      </c>
+      <c r="G31" s="22">
+        <f>77.4*1000</f>
+        <v>77400</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="12">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>594.58064516129036</v>
+      </c>
+      <c r="K31">
+        <v>1025.3699999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <f>395*1000</f>
+        <v>395000</v>
+      </c>
+      <c r="D32">
+        <f>224*1000</f>
+        <v>224000</v>
+      </c>
+      <c r="E32">
+        <f>60*1000</f>
+        <v>60000</v>
+      </c>
+      <c r="F32">
+        <f>60*1000</f>
+        <v>60000</v>
+      </c>
+      <c r="G32">
+        <f>60*1000</f>
+        <v>60000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="J32" s="1">
+        <v>717.17688679245282</v>
+      </c>
+      <c r="K32">
+        <v>1148.22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="5">
+        <v>578.42560000000003</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Morocco","Indicator","C")*$O$2</f>
+        <v>32000</v>
+      </c>
+      <c r="D34">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>130000</v>
+      </c>
+      <c r="E34">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Morocco","Indicator","E")*$O$2</f>
+        <v>98500</v>
+      </c>
+      <c r="F34">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Morocco","Indicator","I")*$O$2</f>
+        <v>1000</v>
+      </c>
+      <c r="G34">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>130000</v>
+      </c>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Morocco","Indicator","C")*$O$2</f>
+        <v>35000</v>
+      </c>
+      <c r="D35">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>135000</v>
+      </c>
+      <c r="E35">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Morocco","Indicator","E")*$O$2</f>
+        <v>85000</v>
+      </c>
+      <c r="F35">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Morocco","Indicator","I")*$O$2</f>
+        <v>500</v>
+      </c>
+      <c r="G35">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>135000</v>
+      </c>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Morocco","Indicator","C")*O2</f>
+        <v>36000</v>
+      </c>
+      <c r="D36">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>130000</v>
+      </c>
+      <c r="E36">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Morocco","Indicator","E")*$O$2</f>
+        <v>109000</v>
+      </c>
+      <c r="F36">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Morocco","Indicator","I")*$O$2</f>
+        <v>500</v>
+      </c>
+      <c r="G36">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>130000</v>
+      </c>
+      <c r="H36" s="64"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Morocco","Indicator","C")*O2</f>
+        <v>38000</v>
+      </c>
+      <c r="D37">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>130000</v>
+      </c>
+      <c r="E37">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Morocco","Indicator","E")*$O$2</f>
+        <v>76500</v>
+      </c>
+      <c r="F37">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Morocco","Indicator","I")*$O$2</f>
+        <v>500</v>
+      </c>
+      <c r="G37">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>130000</v>
+      </c>
+      <c r="H37" s="64"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Morocco","Indicator","C")*O2</f>
+        <v>40000</v>
+      </c>
+      <c r="D38">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>120000</v>
+      </c>
+      <c r="E38">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Morocco","Indicator","E")*$O$2</f>
+        <v>87000</v>
+      </c>
+      <c r="F38">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Morocco","Indicator","I")*$O$2</f>
+        <v>3500</v>
+      </c>
+      <c r="G38">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>120000</v>
+      </c>
+      <c r="H38" s="64"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Morocco","Indicator","C")*O2</f>
+        <v>40000</v>
+      </c>
+      <c r="D39">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>120000</v>
+      </c>
+      <c r="E39">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Morocco","Indicator","E")*$O$2</f>
+        <v>67500</v>
+      </c>
+      <c r="F39">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Morocco","Indicator","I")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>120000</v>
+      </c>
+      <c r="H39" s="64"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Morocco","Indicator","C")*O2</f>
+        <v>40000</v>
+      </c>
+      <c r="D40">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>120000</v>
+      </c>
+      <c r="E40">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Morocco","Indicator","E")*$O$2</f>
+        <v>88000</v>
+      </c>
+      <c r="F40">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Morocco","Indicator","I")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Morocco","Indicator","P")*$O$2</f>
+        <v>120000</v>
+      </c>
+      <c r="H40" s="64"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Tunisia","Indicator","C")*$O$2</f>
+        <v>24000</v>
+      </c>
+      <c r="D41">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>23000</v>
+      </c>
+      <c r="E41">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Tunisia","Indicator","E")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Tunisia","Indicator","I")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>23000</v>
+      </c>
+      <c r="H41" s="64"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Tunisia","Indicator","C")*$O$2</f>
+        <v>31000</v>
+      </c>
+      <c r="D42">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>36000</v>
+      </c>
+      <c r="E42">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Tunisia","Indicator","E")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Tunisia","Indicator","I")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>36000</v>
+      </c>
+      <c r="H42" s="64"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Tunisia","Indicator","C")*$O$2</f>
+        <v>24500</v>
+      </c>
+      <c r="D43">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>20000</v>
+      </c>
+      <c r="E43">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Tunisia","Indicator","E")*$O$2</f>
+        <v>500</v>
+      </c>
+      <c r="F43">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Tunisia","Indicator","I")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>20000</v>
+      </c>
+      <c r="H43" s="64"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Tunisia","Indicator","C")*$O$2</f>
+        <v>24500</v>
+      </c>
+      <c r="D44">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>25000</v>
+      </c>
+      <c r="E44">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Tunisia","Indicator","E")*$O$2</f>
+        <v>500</v>
+      </c>
+      <c r="F44">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Tunisia","Indicator","I")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>25000</v>
+      </c>
+      <c r="H44" s="64"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Tunisia","Indicator","C")*$O$2</f>
+        <v>26500</v>
+      </c>
+      <c r="D45">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>28000</v>
+      </c>
+      <c r="E45">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Tunisia","Indicator","E")*$O$2</f>
+        <v>500</v>
+      </c>
+      <c r="F45">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Tunisia","Indicator","I")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>28000</v>
+      </c>
+      <c r="H45" s="64"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Tunisia","Indicator","C")*$O$2</f>
+        <v>24000</v>
+      </c>
+      <c r="D46">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>24000</v>
+      </c>
+      <c r="E46">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Tunisia","Indicator","E")*$O$2</f>
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Tunisia","Indicator","I")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>24000</v>
+      </c>
+      <c r="H46" s="64"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Tunisia","Indicator","C")*$O$2</f>
+        <v>26000</v>
+      </c>
+      <c r="D47">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>28000</v>
+      </c>
+      <c r="E47">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Tunisia","Indicator","E")*$O$2</f>
+        <v>1000</v>
+      </c>
+      <c r="F47">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Tunisia","Indicator","I")*$O$2</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Tunisia","Indicator","P")*$O$2</f>
+        <v>28000</v>
+      </c>
+      <c r="H47" s="64"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -3042,7 +4866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU29"/>
   <sheetViews>
@@ -7522,7 +9346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -8237,1830 +10061,6 @@
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T47"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <f>525.7*1000</f>
-        <v>525700</v>
-      </c>
-      <c r="D2">
-        <f>1789.9*1000</f>
-        <v>1789900</v>
-      </c>
-      <c r="E2">
-        <f>355.8*1000</f>
-        <v>355800</v>
-      </c>
-      <c r="F2">
-        <f>84*1000</f>
-        <v>84000</v>
-      </c>
-      <c r="G2">
-        <f>591.1*1000</f>
-        <v>591100</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2.4E-2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>245.30077198866351</v>
-      </c>
-      <c r="K2">
-        <v>828.26</v>
-      </c>
-      <c r="O2" s="66">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <f>518.6*1000</f>
-        <v>518600</v>
-      </c>
-      <c r="D3">
-        <f>1125.3*1000</f>
-        <v>1125300</v>
-      </c>
-      <c r="E3">
-        <f>420.7*1000</f>
-        <v>420700</v>
-      </c>
-      <c r="F3">
-        <f>151.9*1000</f>
-        <v>151900</v>
-      </c>
-      <c r="G3" s="22">
-        <f>458.2*1000</f>
-        <v>458200</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="I3" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="1">
-        <v>184.9668501610679</v>
-      </c>
-      <c r="K3">
-        <v>620.44000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <f>541.1*1000</f>
-        <v>541100</v>
-      </c>
-      <c r="D4">
-        <f>1389*1000</f>
-        <v>1389000</v>
-      </c>
-      <c r="E4">
-        <f>464.6*1000</f>
-        <v>464600</v>
-      </c>
-      <c r="F4">
-        <f>100.7*1000</f>
-        <v>100700</v>
-      </c>
-      <c r="G4">
-        <f>546.3*1000</f>
-        <v>546300</v>
-      </c>
-      <c r="H4" s="2">
-        <v>-0.03</v>
-      </c>
-      <c r="I4" s="2">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>164.12043561896019</v>
-      </c>
-      <c r="K4">
-        <v>675.41</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <f>579.9*1000</f>
-        <v>579900</v>
-      </c>
-      <c r="D5">
-        <f>1493*1000</f>
-        <v>1493000</v>
-      </c>
-      <c r="E5">
-        <f>468.1*1000</f>
-        <v>468100</v>
-      </c>
-      <c r="F5">
-        <f>85.6*1000</f>
-        <v>85600</v>
-      </c>
-      <c r="G5">
-        <f>659.3*1000</f>
-        <v>659300</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="I5" s="13">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>253.75594594594571</v>
-      </c>
-      <c r="K5">
-        <v>661.64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <f>363.2*1000</f>
-        <v>363200</v>
-      </c>
-      <c r="D6">
-        <f>665.8*1000</f>
-        <v>665800</v>
-      </c>
-      <c r="E6">
-        <f>316.5*1000</f>
-        <v>316500</v>
-      </c>
-      <c r="F6">
-        <f>97.8*1000</f>
-        <v>97800</v>
-      </c>
-      <c r="G6">
-        <f>414.1*1000</f>
-        <v>414100</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I6" s="12">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>341.36704191616792</v>
-      </c>
-      <c r="K6">
-        <v>638.66</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <f>402.3*1000</f>
-        <v>402300</v>
-      </c>
-      <c r="D7">
-        <f>854*1000</f>
-        <v>854000</v>
-      </c>
-      <c r="E7">
-        <f>332.4*1000</f>
-        <v>332400</v>
-      </c>
-      <c r="F7">
-        <f>108.6*1000</f>
-        <v>108600</v>
-      </c>
-      <c r="G7">
-        <f>407.4*1000</f>
-        <v>407400</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="I7" s="13">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>561.969357311321</v>
-      </c>
-      <c r="K7">
-        <v>582.9</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <f>460*1000</f>
-        <v>460000</v>
-      </c>
-      <c r="D8">
-        <f>1289.9*1000</f>
-        <v>1289900</v>
-      </c>
-      <c r="E8">
-        <f>415.5*1000</f>
-        <v>415500</v>
-      </c>
-      <c r="F8">
-        <f>92.8*1000</f>
-        <v>92800</v>
-      </c>
-      <c r="G8">
-        <f>468.3*1000</f>
-        <v>468300</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I8" s="12">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>630.10107572115385</v>
-      </c>
-      <c r="K8">
-        <v>705.35</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="5">
-        <v>341.55793632075472</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <f>54.4*1000</f>
-        <v>54400</v>
-      </c>
-      <c r="D10">
-        <f>100.3*1000</f>
-        <v>100300</v>
-      </c>
-      <c r="E10">
-        <f>64.9*1000</f>
-        <v>64900.000000000007</v>
-      </c>
-      <c r="F10">
-        <f>0.7*1000</f>
-        <v>700</v>
-      </c>
-      <c r="G10" s="22">
-        <f>22.5*1000</f>
-        <v>22500</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="J10" s="1">
-        <v>309.5344827586207</v>
-      </c>
-      <c r="K10">
-        <v>886.88</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <f>71.6*1000</f>
-        <v>71600</v>
-      </c>
-      <c r="D11">
-        <f>140.5*1000</f>
-        <v>140500</v>
-      </c>
-      <c r="E11">
-        <f>80.2*1000</f>
-        <v>80200</v>
-      </c>
-      <c r="F11">
-        <f>2.3*1000</f>
-        <v>2300</v>
-      </c>
-      <c r="G11" s="22">
-        <f>24.7*1000</f>
-        <v>24700</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="I11" s="12">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J11" s="1">
-        <v>270.42567567567568</v>
-      </c>
-      <c r="K11">
-        <v>703.53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <f>61.8*1000</f>
-        <v>61800</v>
-      </c>
-      <c r="D12">
-        <f>100*1000</f>
-        <v>100000</v>
-      </c>
-      <c r="E12">
-        <f>76.1*1000</f>
-        <v>76100</v>
-      </c>
-      <c r="F12">
-        <f>0.4*1000</f>
-        <v>400</v>
-      </c>
-      <c r="G12" s="22">
-        <f>15.6*1000</f>
-        <v>15600</v>
-      </c>
-      <c r="H12" s="2">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>239.93975903614461</v>
-      </c>
-      <c r="K12">
-        <v>710.88</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <f>59.3*1000</f>
-        <v>59300</v>
-      </c>
-      <c r="D13">
-        <f>206.2*1000</f>
-        <v>206200</v>
-      </c>
-      <c r="E13">
-        <f>72.7*1000</f>
-        <v>72700</v>
-      </c>
-      <c r="F13">
-        <f>0*1000</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <f>25.5*1000</f>
-        <v>25500</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="I13" s="12">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>294.60318015267171</v>
-      </c>
-      <c r="K13">
-        <v>734.05</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <f>39.1*1000</f>
-        <v>39100</v>
-      </c>
-      <c r="D14">
-        <f>126*1000</f>
-        <v>126000</v>
-      </c>
-      <c r="E14">
-        <f>59*1000</f>
-        <v>59000</v>
-      </c>
-      <c r="F14">
-        <f>2.3*1000</f>
-        <v>2300</v>
-      </c>
-      <c r="G14" s="22">
-        <f>16.9*1000</f>
-        <v>16900</v>
-      </c>
-      <c r="H14" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I14" s="13">
-        <v>7.8E-2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>336.48511875000003</v>
-      </c>
-      <c r="K14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <f>60.9*1000</f>
-        <v>60900</v>
-      </c>
-      <c r="D15">
-        <f>160.9*1000</f>
-        <v>160900</v>
-      </c>
-      <c r="E15">
-        <f>55.1*1000</f>
-        <v>55100</v>
-      </c>
-      <c r="F15">
-        <f>11.5*1000</f>
-        <v>11500</v>
-      </c>
-      <c r="G15" s="22">
-        <f>19.7*1000</f>
-        <v>19700</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I15" s="12">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>589.73076794871793</v>
-      </c>
-      <c r="K15">
-        <v>721.1</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <f>72.4*1000</f>
-        <v>72400</v>
-      </c>
-      <c r="D16">
-        <f>195*1000</f>
-        <v>195000</v>
-      </c>
-      <c r="E16">
-        <f>60*1000</f>
-        <v>60000</v>
-      </c>
-      <c r="F16">
-        <f>13.7*1000</f>
-        <v>13700</v>
-      </c>
-      <c r="G16" s="22">
-        <f>21*1000</f>
-        <v>21000</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I16" s="13">
-        <v>2.4E-2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>840.98425196850394</v>
-      </c>
-      <c r="K16">
-        <v>774.13</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="5">
-        <v>587.40157480314963</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18">
-        <f>120*100</f>
-        <v>12000</v>
-      </c>
-      <c r="D18">
-        <f>185*1000</f>
-        <v>185000</v>
-      </c>
-      <c r="E18">
-        <f>20.2*1000</f>
-        <v>20200</v>
-      </c>
-      <c r="F18">
-        <f>0*1000</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="22">
-        <f>199*1000</f>
-        <v>199000</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I18" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J18" s="1">
-        <v>269.25496932515341</v>
-      </c>
-      <c r="K18">
-        <v>913.35</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <f>114.3*1000</f>
-        <v>114300</v>
-      </c>
-      <c r="D19">
-        <f>275*1000</f>
-        <v>275000</v>
-      </c>
-      <c r="E19">
-        <f>20.8*1000</f>
-        <v>20800</v>
-      </c>
-      <c r="F19">
-        <f>0*1000</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="22">
-        <f>222*1000</f>
-        <v>222000</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2.3E-2</v>
-      </c>
-      <c r="I19" s="13">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J19" s="1">
-        <v>229.40700062695919</v>
-      </c>
-      <c r="K19">
-        <v>872.43</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <f>108.6*1000</f>
-        <v>108600</v>
-      </c>
-      <c r="D20">
-        <f>275*1000</f>
-        <v>275000</v>
-      </c>
-      <c r="E20">
-        <f>24.5*1000</f>
-        <v>24500</v>
-      </c>
-      <c r="F20">
-        <f>0.1*1000</f>
-        <v>100</v>
-      </c>
-      <c r="G20" s="22">
-        <f>230*1000</f>
-        <v>230000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>-9.1999999999999998E-2</v>
-      </c>
-      <c r="I20" s="12">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>177.36952520593081</v>
-      </c>
-      <c r="K20">
-        <v>722.42</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <f>105.5*1000</f>
-        <v>105500</v>
-      </c>
-      <c r="D21">
-        <f>232*1000</f>
-        <v>232000</v>
-      </c>
-      <c r="E21">
-        <f>24.5*1000</f>
-        <v>24500</v>
-      </c>
-      <c r="F21">
-        <f>0*1000</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="22">
-        <f>175*1000</f>
-        <v>175000</v>
-      </c>
-      <c r="H21" s="2">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="I21" s="13">
-        <v>1.2E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>260.57058951219523</v>
-      </c>
-      <c r="K21">
-        <v>900.71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <f>96.5*1000</f>
-        <v>96500</v>
-      </c>
-      <c r="D22">
-        <f>345*1000</f>
-        <v>345000</v>
-      </c>
-      <c r="E22">
-        <f>23.3*1000</f>
-        <v>23300</v>
-      </c>
-      <c r="F22">
-        <f>0.2*1000</f>
-        <v>200</v>
-      </c>
-      <c r="G22" s="22">
-        <f>325*1000</f>
-        <v>325000</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I22" s="12">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>312.26561630218703</v>
-      </c>
-      <c r="K22">
-        <v>749.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23">
-        <f>90.5*1000</f>
-        <v>90500</v>
-      </c>
-      <c r="D23">
-        <f>175*1000</f>
-        <v>175000</v>
-      </c>
-      <c r="E23">
-        <f>19.6*1000</f>
-        <v>19600</v>
-      </c>
-      <c r="F23">
-        <f>0.3*1000</f>
-        <v>300</v>
-      </c>
-      <c r="G23" s="22">
-        <f>110*1000</f>
-        <v>110000</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I23" s="13">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J23" s="1">
-        <v>549.13660973236028</v>
-      </c>
-      <c r="K23">
-        <v>838.68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24">
-        <f>110*1000</f>
-        <v>110000</v>
-      </c>
-      <c r="D24">
-        <f>250*1000</f>
-        <v>250000</v>
-      </c>
-      <c r="E24">
-        <f>20*1000</f>
-        <v>20000</v>
-      </c>
-      <c r="F24">
-        <f>0*1000</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="22">
-        <f>238.5*1000</f>
-        <v>238500</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I24" s="12">
-        <v>2.7E-2</v>
-      </c>
-      <c r="J24" s="1">
-        <v>652.32392783783769</v>
-      </c>
-      <c r="K24">
-        <v>705.26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="5">
-        <v>387.3</v>
-      </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <f>417.3*1000</f>
-        <v>417300</v>
-      </c>
-      <c r="D26">
-        <f>173.6*1000</f>
-        <v>173600</v>
-      </c>
-      <c r="E26">
-        <f>197*1000</f>
-        <v>197000</v>
-      </c>
-      <c r="F26">
-        <f>48.6*1000</f>
-        <v>48600</v>
-      </c>
-      <c r="G26" s="22">
-        <f>40*1000</f>
-        <v>40000</v>
-      </c>
-      <c r="H26" s="2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I26" s="13">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="J26" s="1">
-        <v>316.12</v>
-      </c>
-      <c r="K26">
-        <v>1212.48</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <f>407.6*1000</f>
-        <v>407600</v>
-      </c>
-      <c r="D27">
-        <f>366.5*1000</f>
-        <v>366500</v>
-      </c>
-      <c r="E27">
-        <f>80.2*1000</f>
-        <v>80200</v>
-      </c>
-      <c r="F27">
-        <f>81.8*1000</f>
-        <v>81800</v>
-      </c>
-      <c r="G27" s="22">
-        <f>60*1000</f>
-        <v>60000</v>
-      </c>
-      <c r="H27" s="2">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I27" s="12">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="J27" s="1">
-        <v>288.07849813863942</v>
-      </c>
-      <c r="K27">
-        <v>1170.8499999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <f>421.9*1000</f>
-        <v>421900</v>
-      </c>
-      <c r="D28">
-        <f>273.5*1000</f>
-        <v>273500</v>
-      </c>
-      <c r="E28">
-        <f>76.1*1000</f>
-        <v>76100</v>
-      </c>
-      <c r="F28">
-        <f>51.2*1000</f>
-        <v>51200</v>
-      </c>
-      <c r="G28" s="22">
-        <f>83*1000</f>
-        <v>83000</v>
-      </c>
-      <c r="H28" s="2">
-        <v>-8.8999999999999996E-2</v>
-      </c>
-      <c r="I28" s="13">
-        <v>-1E-3</v>
-      </c>
-      <c r="J28" s="1">
-        <v>226.22652930930951</v>
-      </c>
-      <c r="K28">
-        <v>981.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29">
-        <f>457.1*1000</f>
-        <v>457100</v>
-      </c>
-      <c r="D29">
-        <f>329*1000</f>
-        <v>329000</v>
-      </c>
-      <c r="E29">
-        <f>72.7*1000</f>
-        <v>72700</v>
-      </c>
-      <c r="F29">
-        <f>51.5*1000</f>
-        <v>51500</v>
-      </c>
-      <c r="G29" s="22">
-        <f>62.5*1000</f>
-        <v>62500</v>
-      </c>
-      <c r="H29" s="2">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="I29" s="12">
-        <v>1.9E-2</v>
-      </c>
-      <c r="J29" s="1">
-        <v>305.30891238670688</v>
-      </c>
-      <c r="K29">
-        <v>990.35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30">
-        <f>433.8*1000</f>
-        <v>433800</v>
-      </c>
-      <c r="D30">
-        <f>240.9*1000</f>
-        <v>240900</v>
-      </c>
-      <c r="E30">
-        <f>59*1000</f>
-        <v>59000</v>
-      </c>
-      <c r="F30">
-        <f>64.6*1000</f>
-        <v>64599.999999999993</v>
-      </c>
-      <c r="G30" s="22">
-        <f>67.3*1000</f>
-        <v>67300</v>
-      </c>
-      <c r="H30" s="2">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="I30" s="13">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="J30" s="1">
-        <v>362.26008230452669</v>
-      </c>
-      <c r="K30">
-        <v>818.17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31">
-        <f>411.5*1000</f>
-        <v>411500</v>
-      </c>
-      <c r="D31">
-        <f>328.5*1000</f>
-        <v>328500</v>
-      </c>
-      <c r="E31">
-        <f>55.1*1000</f>
-        <v>55100</v>
-      </c>
-      <c r="F31">
-        <f>68.6*1000</f>
-        <v>68600</v>
-      </c>
-      <c r="G31" s="22">
-        <f>77.4*1000</f>
-        <v>77400</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I31" s="12">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="J31" s="1">
-        <v>594.58064516129036</v>
-      </c>
-      <c r="K31">
-        <v>1025.3699999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32">
-        <f>395*1000</f>
-        <v>395000</v>
-      </c>
-      <c r="D32">
-        <f>224*1000</f>
-        <v>224000</v>
-      </c>
-      <c r="E32">
-        <f>60*1000</f>
-        <v>60000</v>
-      </c>
-      <c r="F32">
-        <f>60*1000</f>
-        <v>60000</v>
-      </c>
-      <c r="G32">
-        <f>60*1000</f>
-        <v>60000</v>
-      </c>
-      <c r="H32" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I32" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="J32" s="1">
-        <v>717.17688679245282</v>
-      </c>
-      <c r="K32">
-        <v>1148.22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="5">
-        <v>578.42560000000003</v>
-      </c>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Morocco","Indicator","C")*$O$2</f>
-        <v>32000</v>
-      </c>
-      <c r="D34">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>130000</v>
-      </c>
-      <c r="E34">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Morocco","Indicator","E")*$O$2</f>
-        <v>98500</v>
-      </c>
-      <c r="F34">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Morocco","Indicator","I")*$O$2</f>
-        <v>1000</v>
-      </c>
-      <c r="G34">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>130000</v>
-      </c>
-      <c r="H34" s="64"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Morocco","Indicator","C")*$O$2</f>
-        <v>35000</v>
-      </c>
-      <c r="D35">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>135000</v>
-      </c>
-      <c r="E35">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Morocco","Indicator","E")*$O$2</f>
-        <v>85000</v>
-      </c>
-      <c r="F35">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Morocco","Indicator","I")*$O$2</f>
-        <v>500</v>
-      </c>
-      <c r="G35">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>135000</v>
-      </c>
-      <c r="H35" s="64"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Morocco","Indicator","C")*O2</f>
-        <v>36000</v>
-      </c>
-      <c r="D36">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>130000</v>
-      </c>
-      <c r="E36">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Morocco","Indicator","E")*$O$2</f>
-        <v>109000</v>
-      </c>
-      <c r="F36">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Morocco","Indicator","I")*$O$2</f>
-        <v>500</v>
-      </c>
-      <c r="G36">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>130000</v>
-      </c>
-      <c r="H36" s="64"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Morocco","Indicator","C")*O2</f>
-        <v>38000</v>
-      </c>
-      <c r="D37">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>130000</v>
-      </c>
-      <c r="E37">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Morocco","Indicator","E")*$O$2</f>
-        <v>76500</v>
-      </c>
-      <c r="F37">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Morocco","Indicator","I")*$O$2</f>
-        <v>500</v>
-      </c>
-      <c r="G37">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>130000</v>
-      </c>
-      <c r="H37" s="64"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Morocco","Indicator","C")*O2</f>
-        <v>40000</v>
-      </c>
-      <c r="D38">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>120000</v>
-      </c>
-      <c r="E38">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Morocco","Indicator","E")*$O$2</f>
-        <v>87000</v>
-      </c>
-      <c r="F38">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Morocco","Indicator","I")*$O$2</f>
-        <v>3500</v>
-      </c>
-      <c r="G38">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>120000</v>
-      </c>
-      <c r="H38" s="64"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Morocco","Indicator","C")*O2</f>
-        <v>40000</v>
-      </c>
-      <c r="D39">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>120000</v>
-      </c>
-      <c r="E39">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Morocco","Indicator","E")*$O$2</f>
-        <v>67500</v>
-      </c>
-      <c r="F39">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Morocco","Indicator","I")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>120000</v>
-      </c>
-      <c r="H39" s="64"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Morocco","Indicator","C")*O2</f>
-        <v>40000</v>
-      </c>
-      <c r="D40">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>120000</v>
-      </c>
-      <c r="E40">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Morocco","Indicator","E")*$O$2</f>
-        <v>88000</v>
-      </c>
-      <c r="F40">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Morocco","Indicator","I")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Morocco","Indicator","P")*$O$2</f>
-        <v>120000</v>
-      </c>
-      <c r="H40" s="64"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Tunisia","Indicator","C")*$O$2</f>
-        <v>24000</v>
-      </c>
-      <c r="D41">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>23000</v>
-      </c>
-      <c r="E41">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Tunisia","Indicator","E")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Tunisia","Indicator","I")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2018/19","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>23000</v>
-      </c>
-      <c r="H41" s="64"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Tunisia","Indicator","C")*$O$2</f>
-        <v>31000</v>
-      </c>
-      <c r="D42">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>36000</v>
-      </c>
-      <c r="E42">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Tunisia","Indicator","E")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Tunisia","Indicator","I")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2019/20","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>36000</v>
-      </c>
-      <c r="H42" s="64"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Tunisia","Indicator","C")*$O$2</f>
-        <v>24500</v>
-      </c>
-      <c r="D43">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>20000</v>
-      </c>
-      <c r="E43">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Tunisia","Indicator","E")*$O$2</f>
-        <v>500</v>
-      </c>
-      <c r="F43">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Tunisia","Indicator","I")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2020/21","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>20000</v>
-      </c>
-      <c r="H43" s="64"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Tunisia","Indicator","C")*$O$2</f>
-        <v>24500</v>
-      </c>
-      <c r="D44">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>25000</v>
-      </c>
-      <c r="E44">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Tunisia","Indicator","E")*$O$2</f>
-        <v>500</v>
-      </c>
-      <c r="F44">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Tunisia","Indicator","I")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2021/22","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>25000</v>
-      </c>
-      <c r="H44" s="64"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Tunisia","Indicator","C")*$O$2</f>
-        <v>26500</v>
-      </c>
-      <c r="D45">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>28000</v>
-      </c>
-      <c r="E45">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Tunisia","Indicator","E")*$O$2</f>
-        <v>500</v>
-      </c>
-      <c r="F45">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Tunisia","Indicator","I")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2022/23","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>28000</v>
-      </c>
-      <c r="H45" s="64"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Tunisia","Indicator","C")*$O$2</f>
-        <v>24000</v>
-      </c>
-      <c r="D46">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>24000</v>
-      </c>
-      <c r="E46">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Tunisia","Indicator","E")*$O$2</f>
-        <v>1000</v>
-      </c>
-      <c r="F46">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Tunisia","Indicator","I")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2023/24","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>24000</v>
-      </c>
-      <c r="H46" s="64"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Tunisia","Indicator","C")*$O$2</f>
-        <v>26000</v>
-      </c>
-      <c r="D47">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>28000</v>
-      </c>
-      <c r="E47">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Tunisia","Indicator","E")*$O$2</f>
-        <v>1000</v>
-      </c>
-      <c r="F47">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Tunisia","Indicator","I")*$O$2</f>
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <f>GETPIVOTDATA("Tonnes",[1]Sheet1!$A$5,"Haverst period","2024/25","Country","Tunisia","Indicator","P")*$O$2</f>
-        <v>28000</v>
-      </c>
-      <c r="H47" s="64"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
